--- a/code/correlations_istart-covars_full.xlsx
+++ b/code/correlations_istart-covars_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/Documents_Air/GitHub/istart-socdoors/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7FE712-8FE6-A141-BD58-30D2D96EE271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C9E261-0BFA-484C-B497-ABE57B94F155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31860" yWindow="2520" windowWidth="27640" windowHeight="17040" xr2:uid="{71B5C68E-2A94-AF44-9E42-D4CFE045CB27}"/>
   </bookViews>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA6B014-C98D-F748-A257-7048F06BB5A5}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50:M50"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
